--- a/JAVA作業チェックシート【P162】.xlsx
+++ b/JAVA作業チェックシート【P162】.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P162\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P162\create random修正実施完成版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C33A22-71C0-4FBE-B524-5C2FCE5D3EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A662A9-0F7A-4685-83DC-6628DD5031F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>要件定義の確認</t>
     <rPh sb="0" eb="2">
@@ -546,16 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>悪かった点</t>
-    <rPh sb="0" eb="1">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>if  (ransu1 ==ransu2&amp;&amp;ransu1!=0){</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,7 +563,273 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>でどちらかの条件に該当する場合と認識てしていた。</t>
+    <t>まず配列１個目の乱数の生成</t>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここではかぶる相手の乱数が対象として存在しない為</t>
+    <rPh sb="7" eb="9">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０以上であれば生成完了となる</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２個目の乱数の生成</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで被るかどうかの比較相手ransu1が存在する為</t>
+    <rPh sb="3" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ransu2= random.nextInt(8);//randomメソッドで乱数作成して変数ransu1に代入する。0-7</t>
+  </si>
+  <si>
+    <t>ransu2 = ransu2 + 1; //0-7に対して+1する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (ransu1==ransu2) {</t>
+  </si>
+  <si>
+    <t>//System.out.println("番号がかぶったので再度乱数生成します。1");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> continue;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> else if (ransu2!=0) {</t>
+  </si>
+  <si>
+    <t>Array[1]  =ransu2;</t>
+  </si>
+  <si>
+    <t>条件tansu2とransu1が同じ時はcontinueで乱数生成の行まで戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　tansu2とransu1が異なる時はelseifの条件ransu2が０と同じでない時にransu2の値を配列Array[1]に値を代入する</t>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このパターンで各乱数の比較パターンを増やしていく作った乱数がと全て</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の乱数がかぶらないように調整する。</t>
+    <rPh sb="1" eb="3">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【比較】</t>
+    <rPh sb="1" eb="3">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【乱数生成】</t>
+    <rPh sb="1" eb="3">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ifで比較する設定を＆＆を設定していたこれを実施すると</t>
+    <rPh sb="3" eb="5">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の場合は右のホワイトボードでのパターンの一つでも該当する場合となる為</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でどちらかの条件に該当する場合と認識てしていたが２つの条件が同時に該当する場合となる</t>
     <rPh sb="6" eb="8">
       <t>ジョウケン</t>
     </rPh>
@@ -586,38 +842,66 @@
     <rPh sb="16" eb="18">
       <t>ニンシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際には上記コードではransu1とransu2が同じ時でransu1が０でない時</t>
+    <rPh sb="27" eb="29">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際には上記コードではransu1とransu2が同じ時でない時にransu1が０でない時</t>
     <rPh sb="0" eb="2">
       <t>ジッサイ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ジョウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>両方の条件合致していないと発動しない条件となっていた</t>
-    <rPh sb="0" eb="2">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ransu1を配列Array[1]に入れる</t>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１＝＝２＆＆２＝＝３で条件設定する１と２が同じでかつ２と３が同じ時となる時</t>
+    <rPh sb="11" eb="13">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガッチ</t>
-    </rPh>
     <rPh sb="13" eb="15">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウケン</t>
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の設定になる</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +964,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -876,31 +1169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +1216,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1012,16 +1298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312962</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>197305</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>346980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>202103</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>209571</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>236121</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87106</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1036,8 +1322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13661569" y="1551216"/>
-          <a:ext cx="5386427" cy="7781945"/>
+          <a:off x="17818551" y="1877787"/>
+          <a:ext cx="5386427" cy="7788748"/>
           <a:chOff x="8382000" y="1177019"/>
           <a:chExt cx="5386427" cy="7747928"/>
         </a:xfrm>
@@ -1101,6 +1387,50 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>131349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51810B9A-5C10-4DF0-84C6-97F9888EEF93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14831785" y="2190750"/>
+          <a:ext cx="5519778" cy="3295674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1665,11 +1995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1678,409 +2008,456 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:20">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="11" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="2:20">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="11" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="11" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="6" spans="2:16" ht="18" thickBot="1">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="6" spans="2:20" ht="18" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>43938</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="13">
-        <v>0.91736111111111107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="18" thickBot="1"/>
-    <row r="8" spans="2:16">
-      <c r="B8" s="19"/>
-      <c r="C8" s="31" t="s">
+      <c r="F6" s="9">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18" thickBot="1">
+      <c r="N7" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="12"/>
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="N8" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="N8" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="33" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="18" thickBot="1">
+      <c r="B9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="N9" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="N9" s="36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" ht="18" thickBot="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="38" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" ht="18" thickBot="1">
+      <c r="B10" s="16"/>
+      <c r="C10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="2:16" ht="18" thickBot="1">
-      <c r="B11" s="16"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="2:20" ht="18" thickBot="1">
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="18" thickBot="1">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:20" ht="18" thickBot="1">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="N12" s="11" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="N12" s="34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" ht="18" thickBot="1">
-      <c r="B13" s="16"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" spans="2:20" ht="18" thickBot="1">
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="19" t="s">
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="N14" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="N14" s="33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" ht="18" thickBot="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="2:20" ht="18" thickBot="1">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:16" ht="18" thickBot="1">
-      <c r="B16" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="N15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" spans="2:20" ht="18" thickBot="1">
+      <c r="B16" s="10"/>
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
+      <c r="N16" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="B17" s="14"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="N17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-      <c r="N18" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1">
-      <c r="B19" s="16"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
-        <v>41</v>
+      <c r="N19" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="B20" s="14"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="N20" t="s">
-        <v>42</v>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="N20" s="33" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="18" thickBot="1">
-      <c r="B21" s="15"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5"/>
-      <c r="N21" t="s">
-        <v>43</v>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="N21" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="18" thickBot="1">
-      <c r="B22" s="16"/>
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>45</v>
+      <c r="N22" s="33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="B23" s="14"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="N23" t="s">
-        <v>44</v>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="N23" s="33" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1">
-      <c r="B24" s="15"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="N24" s="33" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1">
-      <c r="B25" s="16"/>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="N26" s="33" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
+      <c r="N27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
+      <c r="N28" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
+      <c r="N30" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1">
       <c r="A31" t="s">
@@ -2092,54 +2469,73 @@
       <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
+      <c r="N31" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="15"/>
+      <c r="E32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="2"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="40"/>
-      <c r="T32" s="40"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
     </row>
     <row r="33" spans="2:20" ht="18" thickBot="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="E33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="3"/>
-      <c r="T33" s="40"/>
-    </row>
-    <row r="34" spans="2:20" ht="18" thickBot="1"/>
+      <c r="N33" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+    </row>
+    <row r="34" spans="2:20" ht="18" thickBot="1">
+      <c r="N34" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="33"/>
+      <c r="T34" s="33"/>
+    </row>
     <row r="35" spans="2:20">
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="1"/>
@@ -2152,9 +2548,19 @@
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
       <c r="M35" s="3"/>
+      <c r="N35" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="33"/>
+      <c r="Q35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" s="33"/>
     </row>
     <row r="36" spans="2:20" ht="18" thickBot="1">
-      <c r="E36" s="9"/>
+      <c r="E36" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>30</v>
@@ -2165,11 +2571,13 @@
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="40"/>
+      <c r="Q36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="2:20" ht="18" thickBot="1"/>
     <row r="38" spans="2:20">
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="1"/>
@@ -2182,9 +2590,13 @@
       <c r="K38" s="1"/>
       <c r="L38" s="2"/>
       <c r="M38" s="3"/>
+      <c r="N38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:20" ht="18" thickBot="1">
-      <c r="E39" s="9"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2193,6 +2605,38 @@
       <c r="K39" s="4"/>
       <c r="L39" s="5"/>
       <c r="M39" s="3"/>
+      <c r="N39" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="N40" s="33"/>
+      <c r="O40" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="N41" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="N42" s="33"/>
+      <c r="O42" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/JAVA作業チェックシート【P162】.xlsx
+++ b/JAVA作業チェックシート【P162】.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P162\create random修正実施完成版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\houshuw\Documents\JAVA\P162\2.Comparsion\random,input conpersion,gold【完成ラフ】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A662A9-0F7A-4685-83DC-6628DD5031F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDFF60F-DDEA-4596-AB15-7F800F9103F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業チェックシート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>要件定義の確認</t>
     <rPh sb="0" eb="2">
@@ -415,10 +415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hiandblow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブメソッド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -903,6 +899,28 @@
     <rPh sb="1" eb="3">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業完了</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainhiandblow</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1169,22 +1187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1234,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,7 +1354,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="17818551" y="1877787"/>
-          <a:ext cx="5386427" cy="7788748"/>
+          <a:ext cx="5386427" cy="7795552"/>
           <a:chOff x="8382000" y="1177019"/>
           <a:chExt cx="5386427" cy="7747928"/>
         </a:xfrm>
@@ -1995,11 +2026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2009,120 +2040,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:20">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="6" spans="2:20" ht="18" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="8">
-        <v>43938</v>
+      <c r="D6" s="7">
+        <v>43948</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="9">
-        <v>0.95416666666666661</v>
+      <c r="F6" s="8">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="18" thickBot="1">
-      <c r="N7" s="33" t="s">
-        <v>58</v>
+      <c r="N7" s="31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="12"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="N8" s="35" t="s">
-        <v>34</v>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="N8" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2132,22 +2166,22 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="2:20" ht="18" thickBot="1">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="N9" s="36" t="s">
-        <v>35</v>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="N9" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2157,307 +2191,315 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" ht="18" thickBot="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:20" ht="18" thickBot="1">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="18" thickBot="1">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="N12" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="N12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:20" ht="18" thickBot="1">
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="N14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="N14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="2:20" ht="18" thickBot="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="N15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="N15" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="2:20" ht="18" thickBot="1">
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="N17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="N17" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="1:20" ht="18" thickBot="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="1:20" ht="18" thickBot="1">
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="33" t="s">
-        <v>62</v>
+      <c r="N19" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="N20" s="33" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="N20" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="N21" s="31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" thickBot="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="N21" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="22" spans="1:20" ht="18" thickBot="1">
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="33" t="s">
+      <c r="N22" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="B23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="N23" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="N23" s="33" t="s">
+    <row r="24" spans="1:20" ht="18" thickBot="1">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="N24" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="18" thickBot="1">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="N24" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="25" spans="1:20" ht="18" thickBot="1">
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1">
-      <c r="B26" s="20"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="N26" s="33" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="N26" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="N27" s="31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="N27" s="33" t="s">
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="N28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="N28" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
     </row>
     <row r="29" spans="1:20">
       <c r="N29" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="N30" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="N30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1">
       <c r="A31" t="s">
@@ -2467,175 +2509,340 @@
         <v>23</v>
       </c>
       <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="E32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="33" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="3"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="2:20" ht="18" thickBot="1">
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="E33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="B32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="E32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="3"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-    </row>
-    <row r="33" spans="2:20" ht="18" thickBot="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="E33" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18" t="s">
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="2:20" ht="18" thickBot="1">
+      <c r="N34" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="31"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="E35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-    </row>
-    <row r="34" spans="2:20" ht="18" thickBot="1">
-      <c r="N34" s="33" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="33"/>
-      <c r="T34" s="33"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="E35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="O35" s="31"/>
+      <c r="Q35" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="2:20" ht="18" thickBot="1">
+      <c r="E36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="33"/>
-      <c r="Q35" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="T35" s="33"/>
-    </row>
-    <row r="36" spans="2:20" ht="18" thickBot="1">
-      <c r="E36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
       <c r="M36" s="3"/>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="18" thickBot="1"/>
     <row r="38" spans="2:20">
-      <c r="E38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
+      <c r="E38" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="33" t="s">
+      <c r="N38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="2:20" ht="18" thickBot="1">
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O38" s="33"/>
-    </row>
-    <row r="39" spans="2:20" ht="18" thickBot="1">
-      <c r="E39" s="6"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="33" t="s">
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="N40" s="31"/>
+      <c r="O40" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="33"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="N40" s="33"/>
-      <c r="O40" s="33" t="s">
+    </row>
+    <row r="41" spans="2:20">
+      <c r="N41" s="31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="N41" s="33" t="s">
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="2:20" ht="18" thickBot="1">
+      <c r="N42" s="31"/>
+      <c r="O42" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="O41" s="33"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="N42" s="33"/>
-      <c r="O42" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20">
+    </row>
+    <row r="43" spans="2:20" ht="18" thickBot="1">
+      <c r="B43" s="37">
+        <v>0</v>
+      </c>
+      <c r="E43" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="18" thickBot="1">
+      <c r="B44" s="37">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="37">
+        <v>2</v>
+      </c>
+      <c r="E44" s="36"/>
       <c r="N44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="18" thickBot="1">
+      <c r="B45" s="35">
+        <v>0</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="37">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
-      <c r="N45" t="s">
-        <v>57</v>
+    <row r="46" spans="2:20" ht="18" thickBot="1">
+      <c r="B46" s="38">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="35">
+        <v>2</v>
+      </c>
+      <c r="E46" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="18" thickBot="1">
+      <c r="B47" s="35">
+        <v>0</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" s="20">
+        <v>2</v>
+      </c>
+      <c r="E47" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="18" thickBot="1">
+      <c r="B48" s="15">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18" thickBot="1">
+      <c r="B49" s="15">
+        <v>0</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="18" thickBot="1">
+      <c r="B50" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="18" thickBot="1">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="18" thickBot="1">
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="18" thickBot="1">
+      <c r="C53" s="35">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20">
+        <v>2</v>
+      </c>
+      <c r="E53" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="18" thickBot="1">
+      <c r="C54" s="37">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="18" thickBot="1">
+      <c r="D55" s="35">
+        <v>2</v>
+      </c>
+      <c r="E55" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="18" thickBot="1">
+      <c r="E56" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="18" thickBot="1">
+      <c r="B57" s="35">
+        <v>0</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+    </row>
+    <row r="58" spans="2:5" ht="18" thickBot="1">
+      <c r="B58" s="36"/>
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+    </row>
+    <row r="59" spans="2:5" ht="18" thickBot="1">
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59" s="36"/>
+    </row>
+    <row r="60" spans="2:5" ht="18" thickBot="1">
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
